--- a/Тест/2019_05_28/Test_1905-14,21,28_OKO.xlsx
+++ b/Тест/2019_05_28/Test_1905-14,21,28_OKO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00\TOWER\Warehouse\OKO-02_Test\Тест\2019_05_21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00\TOWER\Warehouse\OKO-02_Test\Тест\2019_05_28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,15 +14,16 @@
   <sheets>
     <sheet name="2019_05_14" sheetId="1" r:id="rId1"/>
     <sheet name="2019_05_21" sheetId="4" r:id="rId2"/>
-    <sheet name="Итог" sheetId="2" r:id="rId3"/>
-    <sheet name="Время" sheetId="3" r:id="rId4"/>
+    <sheet name="2019_05_28" sheetId="5" r:id="rId3"/>
+    <sheet name="Итог" sheetId="2" r:id="rId4"/>
+    <sheet name="Время" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
   <si>
     <t>ФИО</t>
   </si>
@@ -277,6 +278,36 @@
   </si>
   <si>
     <t>Отрицательное число - конфликт уже прошел</t>
+  </si>
+  <si>
+    <t>Татьяна Пуцанкова</t>
+  </si>
+  <si>
+    <t>Александра Колесова</t>
+  </si>
+  <si>
+    <t>Анастасия Неснанова</t>
+  </si>
+  <si>
+    <t>ANA58/DNV4863</t>
+  </si>
+  <si>
+    <t>Дарья Татаринова</t>
+  </si>
+  <si>
+    <t>Конфликт № 1 не обнаружен</t>
+  </si>
+  <si>
+    <t>Конфликт № 4 не обнаружен</t>
+  </si>
+  <si>
+    <t>Конфликт № 5 не обнаружен</t>
+  </si>
+  <si>
+    <t>Конфликт № 3 не обнаружен</t>
+  </si>
+  <si>
+    <t>Никита Конюшкин</t>
   </si>
 </sst>
 </file>
@@ -480,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -539,6 +570,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2611,7 +2644,7 @@
   <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4377,9 +4410,1337 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <f>VLOOKUP(B4,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D4" s="23">
+        <v>6.7708333333333336E-3</v>
+      </c>
+      <c r="E4" s="23">
+        <f>D4-E$2</f>
+        <v>6.076388888888889E-3</v>
+      </c>
+      <c r="F4" s="23">
+        <f>E4/2</f>
+        <v>3.0381944444444445E-3</v>
+      </c>
+      <c r="G4" s="23">
+        <v>3.0208333333333333E-3</v>
+      </c>
+      <c r="H4" s="23">
+        <f>C4-G4</f>
+        <v>8.8541666666666673E-4</v>
+      </c>
+      <c r="I4" s="29">
+        <f>MINUTE(H4)*60+SECOND(H4)</f>
+        <v>76</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f>IF(I4&lt;VLOOKUP(B4,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="23">
+        <f>VLOOKUP(B5,Время!A$4:D$9,4,FALSE)</f>
+        <v>6.7997685185184897E-3</v>
+      </c>
+      <c r="D5" s="23">
+        <v>1.2847222222222223E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <f t="shared" ref="E5:E7" si="0">D5-E$2</f>
+        <v>1.215277777777778E-2</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:F7" si="1">E5/2</f>
+        <v>6.0763888888888899E-3</v>
+      </c>
+      <c r="G5" s="23">
+        <v>6.0648148148148145E-3</v>
+      </c>
+      <c r="H5" s="23">
+        <f t="shared" ref="H5:H7" si="2">C5-G5</f>
+        <v>7.3495370370367519E-4</v>
+      </c>
+      <c r="I5" s="29">
+        <f t="shared" ref="I5:I7" si="3">MINUTE(H5)*60+SECOND(H5)</f>
+        <v>63</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f>IF(I5&lt;VLOOKUP(B5,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="23">
+        <f>VLOOKUP(B6,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.7094907407407329E-3</v>
+      </c>
+      <c r="D6" s="23">
+        <v>1.3136574074074077E-2</v>
+      </c>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
+        <v>1.2442129629629633E-2</v>
+      </c>
+      <c r="F6" s="23">
+        <f t="shared" si="1"/>
+        <v>6.2210648148148164E-3</v>
+      </c>
+      <c r="G6" s="23">
+        <v>6.1921296296296299E-3</v>
+      </c>
+      <c r="H6" s="23">
+        <f t="shared" si="2"/>
+        <v>2.517361111111103E-3</v>
+      </c>
+      <c r="I6" s="29">
+        <f t="shared" si="3"/>
+        <v>217</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>IF(I6&lt;VLOOKUP(B6,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23">
+        <f>VLOOKUP(B7,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.9409722222222043E-3</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1.8171296296296297E-2</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
+        <v>1.7476851851851851E-2</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="1"/>
+        <v>8.7384259259259255E-3</v>
+      </c>
+      <c r="G7" s="23">
+        <v>8.7384259259259255E-3</v>
+      </c>
+      <c r="H7" s="23">
+        <f t="shared" si="2"/>
+        <v>2.0254629629627881E-4</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>IF(I7&lt;VLOOKUP(B7,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="23">
+        <f>VLOOKUP(B8,Время!A$4:D$9,4,FALSE)</f>
+        <v>9.4907407407407163E-3</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="E8" s="23">
+        <f>D8-E$2</f>
+        <v>1.8055555555555554E-2</v>
+      </c>
+      <c r="F8" s="23">
+        <f>E8/2</f>
+        <v>9.0277777777777769E-3</v>
+      </c>
+      <c r="G8" s="23">
+        <v>9.0046296296296298E-3</v>
+      </c>
+      <c r="H8" s="23">
+        <f>C8-G8</f>
+        <v>4.8611111111108649E-4</v>
+      </c>
+      <c r="I8" s="29">
+        <f>MINUTE(H8)*60+SECOND(H8)</f>
+        <v>42</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>IF(I8&lt;VLOOKUP(B8,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="28"/>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="23">
+        <f>VLOOKUP(B16,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.3564814814814603E-3</v>
+      </c>
+      <c r="D16" s="23">
+        <v>7.0717592592592594E-3</v>
+      </c>
+      <c r="E16" s="23">
+        <f>D16-E$2</f>
+        <v>6.3773148148148148E-3</v>
+      </c>
+      <c r="F16" s="23">
+        <f>E16/2</f>
+        <v>3.1886574074074074E-3</v>
+      </c>
+      <c r="G16" s="23">
+        <v>3.4606481481481485E-3</v>
+      </c>
+      <c r="H16" s="23">
+        <f>-(C16-G16)</f>
+        <v>1.0416666666668815E-4</v>
+      </c>
+      <c r="I16" s="31">
+        <f>-(MINUTE(H16)*60+SECOND(H16))</f>
+        <v>-9</v>
+      </c>
+      <c r="J16" s="34" t="str">
+        <f>IF(I16&lt;VLOOKUP(B16,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="23">
+        <f>VLOOKUP(B17,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D17" s="23">
+        <v>8.217592592592594E-3</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:E19" si="4">D17-E$2</f>
+        <v>7.5231481481481495E-3</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" ref="F17:F19" si="5">E17/2</f>
+        <v>3.7615740740740747E-3</v>
+      </c>
+      <c r="G17" s="23">
+        <v>3.7384259259259263E-3</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" ref="H17:H19" si="6">C17-G17</f>
+        <v>1.6782407407407371E-4</v>
+      </c>
+      <c r="I17" s="31">
+        <f t="shared" ref="I17:I19" si="7">MINUTE(H17)*60+SECOND(H17)</f>
+        <v>14</v>
+      </c>
+      <c r="J17" s="34" t="str">
+        <f>IF(I17&lt;VLOOKUP(B17,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18" s="23">
+        <f>VLOOKUP(B18,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.7094907407407329E-3</v>
+      </c>
+      <c r="D18" s="23">
+        <v>1.7650462962962962E-2</v>
+      </c>
+      <c r="E18" s="23">
+        <f t="shared" si="4"/>
+        <v>1.6956018518518516E-2</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" si="5"/>
+        <v>8.4780092592592581E-3</v>
+      </c>
+      <c r="G18" s="23">
+        <v>7.7777777777777767E-3</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="6"/>
+        <v>9.3171296296295624E-4</v>
+      </c>
+      <c r="I18" s="31">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="J18" s="34" t="str">
+        <f>IF(I18&lt;VLOOKUP(B18,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>5</v>
+      </c>
+      <c r="C19" s="23">
+        <f>VLOOKUP(B19,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.9409722222222043E-3</v>
+      </c>
+      <c r="D19" s="23">
+        <v>1.8518518518518521E-2</v>
+      </c>
+      <c r="E19" s="23">
+        <f t="shared" si="4"/>
+        <v>1.7824074074074076E-2</v>
+      </c>
+      <c r="F19" s="23">
+        <f t="shared" si="5"/>
+        <v>8.9120370370370378E-3</v>
+      </c>
+      <c r="G19" s="23">
+        <v>8.9004629629629625E-3</v>
+      </c>
+      <c r="H19" s="23">
+        <f t="shared" si="6"/>
+        <v>4.0509259259241884E-5</v>
+      </c>
+      <c r="I19" s="31">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J19" s="34" t="str">
+        <f>IF(I19&lt;VLOOKUP(B19,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>6</v>
+      </c>
+      <c r="C20" s="23">
+        <f>VLOOKUP(B20,Время!A$4:D$9,4,FALSE)</f>
+        <v>9.4907407407407163E-3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>1.9502314814814816E-2</v>
+      </c>
+      <c r="E20" s="23">
+        <f>D20-E$2</f>
+        <v>1.8807870370370371E-2</v>
+      </c>
+      <c r="F20" s="23">
+        <f>E20/2</f>
+        <v>9.4039351851851853E-3</v>
+      </c>
+      <c r="G20" s="23">
+        <v>9.3981481481481485E-3</v>
+      </c>
+      <c r="H20" s="23">
+        <f>C20-G20</f>
+        <v>9.2592592592567746E-5</v>
+      </c>
+      <c r="I20" s="31">
+        <f>MINUTE(H20)*60+SECOND(H20)</f>
+        <v>8</v>
+      </c>
+      <c r="J20" s="34" t="str">
+        <f>IF(I20&lt;VLOOKUP(B20,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v>Поздно</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="23">
+        <f>VLOOKUP(B28,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D28" s="23">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="E28" s="23">
+        <f>D28-E$2</f>
+        <v>1.3888888888888887E-3</v>
+      </c>
+      <c r="F28" s="23">
+        <f>E28/2</f>
+        <v>6.9444444444444436E-4</v>
+      </c>
+      <c r="G28" s="26">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="H28" s="23">
+        <f>C28-G28</f>
+        <v>3.2928240740740739E-3</v>
+      </c>
+      <c r="I28" s="29">
+        <f>MINUTE(H28)*60+SECOND(H28)</f>
+        <v>285</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f>IF(I28&lt;VLOOKUP(B28,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="23">
+        <f>VLOOKUP(B29,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.7094907407407329E-3</v>
+      </c>
+      <c r="D29" s="23">
+        <v>9.8379629629629633E-3</v>
+      </c>
+      <c r="E29" s="23">
+        <f t="shared" ref="E29:E32" si="8">D29-E$2</f>
+        <v>9.1435185185185196E-3</v>
+      </c>
+      <c r="F29" s="23">
+        <f t="shared" ref="F29:F32" si="9">E29/2</f>
+        <v>4.5717592592592598E-3</v>
+      </c>
+      <c r="G29" s="26">
+        <v>4.5717592592592598E-3</v>
+      </c>
+      <c r="H29" s="23">
+        <f t="shared" ref="H29:H32" si="10">C29-G29</f>
+        <v>4.1377314814814731E-3</v>
+      </c>
+      <c r="I29" s="29">
+        <f t="shared" ref="I29:I32" si="11">MINUTE(H29)*60+SECOND(H29)</f>
+        <v>357</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f>IF(I29&lt;VLOOKUP(B29,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23">
+        <v>1.2037037037037035E-2</v>
+      </c>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="23">
+        <f>VLOOKUP(B31,Время!A$4:D$9,4,FALSE)</f>
+        <v>6.7997685185184897E-3</v>
+      </c>
+      <c r="D31" s="23">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="E31" s="23">
+        <f t="shared" si="8"/>
+        <v>1.2037037037037037E-2</v>
+      </c>
+      <c r="F31" s="23">
+        <f t="shared" si="9"/>
+        <v>6.0185185185185185E-3</v>
+      </c>
+      <c r="G31" s="26">
+        <v>6.0185185185185185E-3</v>
+      </c>
+      <c r="H31" s="23">
+        <f t="shared" si="10"/>
+        <v>7.812499999999712E-4</v>
+      </c>
+      <c r="I31" s="29">
+        <f t="shared" si="11"/>
+        <v>67</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f>IF(I31&lt;VLOOKUP(B31,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>6</v>
+      </c>
+      <c r="C32" s="23">
+        <f>VLOOKUP(B32,Время!A$4:D$9,4,FALSE)</f>
+        <v>9.4907407407407163E-3</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1.7638888888888888E-2</v>
+      </c>
+      <c r="E32" s="23">
+        <f t="shared" si="8"/>
+        <v>1.6944444444444443E-2</v>
+      </c>
+      <c r="F32" s="23">
+        <f t="shared" si="9"/>
+        <v>8.4722222222222213E-3</v>
+      </c>
+      <c r="G32" s="26">
+        <v>8.4375000000000006E-3</v>
+      </c>
+      <c r="H32" s="23">
+        <f t="shared" si="10"/>
+        <v>1.0532407407407157E-3</v>
+      </c>
+      <c r="I32" s="29">
+        <f t="shared" si="11"/>
+        <v>91</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f>IF(I32&lt;VLOOKUP(B32,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <v>5</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="32"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="23">
+        <f>VLOOKUP(B41,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D41" s="23">
+        <v>5.0925925925925921E-3</v>
+      </c>
+      <c r="E41" s="23">
+        <f>D41-E$2</f>
+        <v>4.3981481481481476E-3</v>
+      </c>
+      <c r="F41" s="23">
+        <f>E41/2</f>
+        <v>2.1990740740740738E-3</v>
+      </c>
+      <c r="G41" s="26">
+        <v>2.1412037037037038E-3</v>
+      </c>
+      <c r="H41" s="23">
+        <f>C41-G41</f>
+        <v>1.7650462962962962E-3</v>
+      </c>
+      <c r="I41" s="29">
+        <f>MINUTE(H41)*60+SECOND(H41)</f>
+        <v>152</v>
+      </c>
+      <c r="J41" s="1" t="str">
+        <f>IF(I41&lt;VLOOKUP(B41,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="23">
+        <f>VLOOKUP(B42,Время!A$4:D$9,4,FALSE)</f>
+        <v>6.7997685185184897E-3</v>
+      </c>
+      <c r="D42" s="23">
+        <v>1.238425925925926E-2</v>
+      </c>
+      <c r="E42" s="23">
+        <f t="shared" ref="E42:E44" si="12">D42-E$2</f>
+        <v>1.1689814814814816E-2</v>
+      </c>
+      <c r="F42" s="23">
+        <f t="shared" ref="F42:F44" si="13">E42/2</f>
+        <v>5.844907407407408E-3</v>
+      </c>
+      <c r="G42" s="26">
+        <v>5.8680555555555543E-3</v>
+      </c>
+      <c r="H42" s="23">
+        <f>C42-G42</f>
+        <v>9.3171296296293542E-4</v>
+      </c>
+      <c r="I42" s="38">
+        <f>MINUTE(H42)*60+SECOND(H42)</f>
+        <v>80</v>
+      </c>
+      <c r="J42" s="39" t="str">
+        <f>IF(I42&lt;VLOOKUP(B42,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>6</v>
+      </c>
+      <c r="C43" s="23">
+        <f>VLOOKUP(B43,Время!A$4:D$9,4,FALSE)</f>
+        <v>9.4907407407407163E-3</v>
+      </c>
+      <c r="D43" s="23">
+        <v>1.6145833333333335E-2</v>
+      </c>
+      <c r="E43" s="23">
+        <f t="shared" si="12"/>
+        <v>1.5451388888888891E-2</v>
+      </c>
+      <c r="F43" s="23">
+        <f t="shared" si="13"/>
+        <v>7.7256944444444456E-3</v>
+      </c>
+      <c r="G43" s="23">
+        <v>7.719907407407408E-3</v>
+      </c>
+      <c r="H43" s="23">
+        <f t="shared" ref="H43:H44" si="14">C43-G43</f>
+        <v>1.7708333333333083E-3</v>
+      </c>
+      <c r="I43" s="29">
+        <f t="shared" ref="I43:I44" si="15">MINUTE(H43)*60+SECOND(H43)</f>
+        <v>153</v>
+      </c>
+      <c r="J43" s="1" t="str">
+        <f>IF(I43&lt;VLOOKUP(B43,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="23">
+        <f>VLOOKUP(B44,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.9409722222222043E-3</v>
+      </c>
+      <c r="D44" s="23">
+        <v>1.7939814814814815E-2</v>
+      </c>
+      <c r="E44" s="23">
+        <f t="shared" si="12"/>
+        <v>1.7245370370370369E-2</v>
+      </c>
+      <c r="F44" s="23">
+        <f t="shared" si="13"/>
+        <v>8.6226851851851846E-3</v>
+      </c>
+      <c r="G44" s="23">
+        <v>8.5995370370370357E-3</v>
+      </c>
+      <c r="H44" s="23">
+        <f t="shared" si="14"/>
+        <v>3.4143518518516859E-4</v>
+      </c>
+      <c r="I44" s="29">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="J44" s="1" t="str">
+        <f>IF(I44&lt;VLOOKUP(B44,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>3</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="28"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="28"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="23">
+        <f>VLOOKUP(B53,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="D53" s="23">
+        <v>3.1828703703703702E-3</v>
+      </c>
+      <c r="E53" s="23">
+        <f>D53-E$2</f>
+        <v>2.4884259259259256E-3</v>
+      </c>
+      <c r="F53" s="23">
+        <f>E53/2</f>
+        <v>1.2442129629629628E-3</v>
+      </c>
+      <c r="G53" s="23">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="H53" s="23">
+        <f>C53-G53</f>
+        <v>2.6909722222222222E-3</v>
+      </c>
+      <c r="I53" s="29">
+        <f>MINUTE(H53)*60+SECOND(H53)</f>
+        <v>233</v>
+      </c>
+      <c r="J53" s="1" t="str">
+        <f>IF(I53&lt;VLOOKUP(B53,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="23">
+        <f>VLOOKUP(B54,Время!A$4:D$9,4,FALSE)</f>
+        <v>3.3564814814814603E-3</v>
+      </c>
+      <c r="D54" s="23">
+        <v>5.9027777777777776E-3</v>
+      </c>
+      <c r="E54" s="23">
+        <f t="shared" ref="E54:E58" si="16">D54-E$2</f>
+        <v>5.208333333333333E-3</v>
+      </c>
+      <c r="F54" s="23">
+        <f t="shared" ref="F54:F58" si="17">E54/2</f>
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="G54" s="26">
+        <v>2.6041666666666665E-3</v>
+      </c>
+      <c r="H54" s="23">
+        <f t="shared" ref="H54:H58" si="18">C54-G54</f>
+        <v>7.5231481481479378E-4</v>
+      </c>
+      <c r="I54" s="38">
+        <f t="shared" ref="I54:I58" si="19">MINUTE(H54)*60+SECOND(H54)</f>
+        <v>65</v>
+      </c>
+      <c r="J54" s="34" t="str">
+        <f>IF(I54&lt;VLOOKUP(B54,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="23">
+        <f>VLOOKUP(B55,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.7094907407407329E-3</v>
+      </c>
+      <c r="D55" s="23">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="E55" s="23">
+        <f t="shared" si="16"/>
+        <v>8.333333333333335E-3</v>
+      </c>
+      <c r="F55" s="23">
+        <f t="shared" si="17"/>
+        <v>4.1666666666666675E-3</v>
+      </c>
+      <c r="G55" s="26">
+        <v>4.1435185185185186E-3</v>
+      </c>
+      <c r="H55" s="23">
+        <f t="shared" si="18"/>
+        <v>4.5659722222222143E-3</v>
+      </c>
+      <c r="I55" s="29">
+        <f t="shared" si="19"/>
+        <v>394</v>
+      </c>
+      <c r="J55" s="1" t="str">
+        <f>IF(I55&lt;VLOOKUP(B55,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>4</v>
+      </c>
+      <c r="C56" s="23">
+        <f>VLOOKUP(B56,Время!A$4:D$9,4,FALSE)</f>
+        <v>6.7997685185184897E-3</v>
+      </c>
+      <c r="D56" s="23">
+        <v>1.2731481481481481E-2</v>
+      </c>
+      <c r="E56" s="23">
+        <f t="shared" si="16"/>
+        <v>1.2037037037037037E-2</v>
+      </c>
+      <c r="F56" s="23">
+        <f t="shared" si="17"/>
+        <v>6.0185185185185185E-3</v>
+      </c>
+      <c r="G56" s="26">
+        <v>6.0069444444444441E-3</v>
+      </c>
+      <c r="H56" s="23">
+        <f t="shared" si="18"/>
+        <v>7.9282407407404564E-4</v>
+      </c>
+      <c r="I56" s="29">
+        <f t="shared" si="19"/>
+        <v>68</v>
+      </c>
+      <c r="J56" s="1" t="str">
+        <f>IF(I56&lt;VLOOKUP(B56,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>6</v>
+      </c>
+      <c r="C57" s="23">
+        <f>VLOOKUP(B57,Время!A$4:D$9,4,FALSE)</f>
+        <v>9.4907407407407163E-3</v>
+      </c>
+      <c r="D57" s="23">
+        <v>1.4097222222222221E-2</v>
+      </c>
+      <c r="E57" s="23">
+        <f t="shared" si="16"/>
+        <v>1.3402777777777777E-2</v>
+      </c>
+      <c r="F57" s="23">
+        <f t="shared" si="17"/>
+        <v>6.7013888888888887E-3</v>
+      </c>
+      <c r="G57" s="26">
+        <v>6.6898148148148142E-3</v>
+      </c>
+      <c r="H57" s="23">
+        <f t="shared" si="18"/>
+        <v>2.800925925925902E-3</v>
+      </c>
+      <c r="I57" s="29">
+        <f t="shared" si="19"/>
+        <v>242</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f>IF(I57&lt;VLOOKUP(B57,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="23">
+        <f>VLOOKUP(B58,Время!A$4:D$9,4,FALSE)</f>
+        <v>8.9409722222222043E-3</v>
+      </c>
+      <c r="D58" s="23">
+        <v>1.7534722222222222E-2</v>
+      </c>
+      <c r="E58" s="23">
+        <f t="shared" si="16"/>
+        <v>1.6840277777777777E-2</v>
+      </c>
+      <c r="F58" s="23">
+        <f t="shared" si="17"/>
+        <v>8.4201388888888885E-3</v>
+      </c>
+      <c r="G58" s="26">
+        <v>8.6226851851851846E-3</v>
+      </c>
+      <c r="H58" s="23">
+        <f t="shared" si="18"/>
+        <v>3.1828703703701972E-4</v>
+      </c>
+      <c r="I58" s="29">
+        <f t="shared" si="19"/>
+        <v>27</v>
+      </c>
+      <c r="J58" s="1" t="str">
+        <f>IF(I58&lt;VLOOKUP(B58,Время!A$4:H$9,8,FALSE),"Поздно","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="28"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -5323,12 +6684,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Тест/2019_05_28/Test_1905-14,21,28_OKO.xlsx
+++ b/Тест/2019_05_28/Test_1905-14,21,28_OKO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10425" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10425" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="2019_05_14" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="95">
   <si>
     <t>ФИО</t>
   </si>
@@ -2643,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,7 +4412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
@@ -5738,10 +5738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6635,6 +6635,29 @@
       <c r="H30" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="29">
+        <f>'2019_05_28'!I4</f>
+        <v>76</v>
+      </c>
+      <c r="K30" s="29">
+        <f>'2019_05_28'!I6</f>
+        <v>217</v>
+      </c>
+      <c r="L30" s="29">
+        <f>'2019_05_28'!I5</f>
+        <v>63</v>
+      </c>
+      <c r="M30" s="29">
+        <f>'2019_05_28'!I7</f>
+        <v>17</v>
+      </c>
+      <c r="N30" s="29">
+        <f>'2019_05_28'!I8</f>
+        <v>42</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
@@ -6650,32 +6673,170 @@
       <c r="H31" s="18" t="s">
         <v>30</v>
       </c>
+      <c r="I31" s="36">
+        <f>'2019_05_28'!I16</f>
+        <v>-9</v>
+      </c>
+      <c r="J31" s="36">
+        <f>'2019_05_28'!I17</f>
+        <v>14</v>
+      </c>
+      <c r="K31" s="36">
+        <f>'2019_05_28'!I18</f>
+        <v>80</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="36">
+        <f>'2019_05_28'!I19</f>
+        <v>3</v>
+      </c>
+      <c r="N31" s="36">
+        <f>'2019_05_28'!I20</f>
+        <v>8</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="37" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>29</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="K34" t="s">
+      <c r="J32" s="29">
+        <f>'2019_05_28'!I28</f>
+        <v>285</v>
+      </c>
+      <c r="K32" s="29">
+        <f>'2019_05_28'!I29</f>
+        <v>357</v>
+      </c>
+      <c r="L32" s="29">
+        <f>'2019_05_28'!I31</f>
+        <v>67</v>
+      </c>
+      <c r="M32" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="29">
+        <f>'2019_05_28'!I32</f>
+        <v>91</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>30</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J33" s="29">
+        <f>'2019_05_28'!I41</f>
+        <v>152</v>
+      </c>
+      <c r="K33" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="L33" s="29">
+        <f>'2019_05_28'!I42</f>
+        <v>80</v>
+      </c>
+      <c r="M33" s="29">
+        <f>'2019_05_28'!I44</f>
+        <v>29</v>
+      </c>
+      <c r="N33" s="29">
+        <f>'2019_05_28'!I43</f>
+        <v>153</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>31</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="29">
+        <f>'2019_05_28'!I54</f>
+        <v>65</v>
+      </c>
+      <c r="J34" s="29">
+        <f>'2019_05_28'!I53</f>
+        <v>233</v>
+      </c>
+      <c r="K34" s="29">
+        <f>'2019_05_28'!I55</f>
+        <v>394</v>
+      </c>
+      <c r="L34" s="29">
+        <f>'2019_05_28'!I56</f>
+        <v>68</v>
+      </c>
+      <c r="M34" s="29">
+        <f>'2019_05_28'!I58</f>
+        <v>27</v>
+      </c>
+      <c r="N34" s="29">
+        <f>'2019_05_28'!I57</f>
+        <v>242</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I37" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="K37" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="36">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I39" s="36">
         <v>9</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K39" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K37" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K38" t="s">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6689,7 +6850,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
